--- a/static/a3.xlsx
+++ b/static/a3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Projects\Test\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6218D80-B848-4AE3-867D-9651A17313C4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2A1F1D-7A8B-4BD4-A93B-13C8768A8B21}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="32760" windowWidth="28800" windowHeight="12228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -819,48 +819,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -879,6 +837,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1242,115 +1242,115 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M3" s="46" t="s">
+      <c r="M3" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
     </row>
     <row r="4" spans="2:44" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="41"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="45" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="2:44" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="M5" s="46" t="s">
+      <c r="M5" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
     </row>
     <row r="7" spans="2:44" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="43"/>
-      <c r="X7" s="43"/>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="43"/>
-      <c r="AA7" s="43"/>
-      <c r="AB7" s="43"/>
-      <c r="AC7" s="43"/>
-      <c r="AD7" s="43"/>
-      <c r="AE7" s="43"/>
-      <c r="AF7" s="43"/>
-      <c r="AG7" s="43"/>
-      <c r="AH7" s="43"/>
-      <c r="AI7" s="43"/>
-      <c r="AJ7" s="43"/>
-      <c r="AK7" s="43"/>
-      <c r="AL7" s="44"/>
-      <c r="AM7" s="51" t="s">
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="49"/>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="49"/>
+      <c r="AG7" s="49"/>
+      <c r="AH7" s="49"/>
+      <c r="AI7" s="49"/>
+      <c r="AJ7" s="49"/>
+      <c r="AK7" s="49"/>
+      <c r="AL7" s="50"/>
+      <c r="AM7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AN7" s="52"/>
-      <c r="AO7" s="52"/>
-      <c r="AP7" s="52"/>
-      <c r="AQ7" s="52"/>
-      <c r="AR7" s="53"/>
+      <c r="AN7" s="38"/>
+      <c r="AO7" s="38"/>
+      <c r="AP7" s="38"/>
+      <c r="AQ7" s="38"/>
+      <c r="AR7" s="39"/>
     </row>
     <row r="8" spans="2:44" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
       <c r="F8" s="10">
         <v>1</v>
       </c>
@@ -1446,15 +1446,15 @@
       <c r="AL8" s="15">
         <v>31</v>
       </c>
-      <c r="AM8" s="54"/>
-      <c r="AN8" s="55"/>
-      <c r="AO8" s="55"/>
-      <c r="AP8" s="55"/>
-      <c r="AQ8" s="55"/>
-      <c r="AR8" s="56"/>
+      <c r="AM8" s="40"/>
+      <c r="AN8" s="41"/>
+      <c r="AO8" s="41"/>
+      <c r="AP8" s="41"/>
+      <c r="AQ8" s="41"/>
+      <c r="AR8" s="42"/>
     </row>
     <row r="9" spans="2:44" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="36"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="6"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1491,17 +1491,17 @@
       <c r="AJ9" s="21"/>
       <c r="AK9" s="21"/>
       <c r="AL9" s="22"/>
-      <c r="AM9" s="50" t="s">
+      <c r="AM9" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="AN9" s="50"/>
-      <c r="AO9" s="50"/>
-      <c r="AP9" s="50"/>
-      <c r="AQ9" s="50"/>
-      <c r="AR9" s="50"/>
+      <c r="AN9" s="36"/>
+      <c r="AO9" s="36"/>
+      <c r="AP9" s="36"/>
+      <c r="AQ9" s="36"/>
+      <c r="AR9" s="36"/>
     </row>
     <row r="10" spans="2:44" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="37"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="7"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1538,17 +1538,17 @@
       <c r="AJ10" s="24"/>
       <c r="AK10" s="24"/>
       <c r="AL10" s="27"/>
-      <c r="AM10" s="50" t="s">
+      <c r="AM10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AN10" s="50"/>
-      <c r="AO10" s="50"/>
-      <c r="AP10" s="50"/>
-      <c r="AQ10" s="50"/>
-      <c r="AR10" s="50"/>
+      <c r="AN10" s="36"/>
+      <c r="AO10" s="36"/>
+      <c r="AP10" s="36"/>
+      <c r="AQ10" s="36"/>
+      <c r="AR10" s="36"/>
     </row>
     <row r="11" spans="2:44" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="37"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="7"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1585,19 +1585,19 @@
       <c r="AJ11" s="24"/>
       <c r="AK11" s="24"/>
       <c r="AL11" s="27"/>
-      <c r="AM11" s="50" t="s">
+      <c r="AM11" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="AN11" s="50"/>
-      <c r="AO11" s="50"/>
-      <c r="AP11" s="50" t="s">
+      <c r="AN11" s="36"/>
+      <c r="AO11" s="36"/>
+      <c r="AP11" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="AQ11" s="50"/>
-      <c r="AR11" s="50"/>
+      <c r="AQ11" s="36"/>
+      <c r="AR11" s="36"/>
     </row>
     <row r="12" spans="2:44" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="37"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1634,17 +1634,17 @@
       <c r="AJ12" s="24"/>
       <c r="AK12" s="24"/>
       <c r="AL12" s="27"/>
-      <c r="AM12" s="50" t="s">
+      <c r="AM12" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="AN12" s="50"/>
-      <c r="AO12" s="50"/>
-      <c r="AP12" s="50"/>
-      <c r="AQ12" s="50"/>
-      <c r="AR12" s="50"/>
+      <c r="AN12" s="36"/>
+      <c r="AO12" s="36"/>
+      <c r="AP12" s="36"/>
+      <c r="AQ12" s="36"/>
+      <c r="AR12" s="36"/>
     </row>
     <row r="13" spans="2:44" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="37"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="7"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1681,17 +1681,17 @@
       <c r="AJ13" s="24"/>
       <c r="AK13" s="24"/>
       <c r="AL13" s="27"/>
-      <c r="AM13" s="50" t="s">
+      <c r="AM13" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="AN13" s="50"/>
-      <c r="AO13" s="50"/>
-      <c r="AP13" s="50"/>
-      <c r="AQ13" s="50"/>
-      <c r="AR13" s="50"/>
+      <c r="AN13" s="36"/>
+      <c r="AO13" s="36"/>
+      <c r="AP13" s="36"/>
+      <c r="AQ13" s="36"/>
+      <c r="AR13" s="36"/>
     </row>
     <row r="14" spans="2:44" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="37"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="7"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1728,17 +1728,17 @@
       <c r="AJ14" s="24"/>
       <c r="AK14" s="24"/>
       <c r="AL14" s="27"/>
-      <c r="AM14" s="50" t="s">
+      <c r="AM14" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="AN14" s="50"/>
-      <c r="AO14" s="50"/>
-      <c r="AP14" s="50"/>
-      <c r="AQ14" s="50"/>
-      <c r="AR14" s="50"/>
+      <c r="AN14" s="36"/>
+      <c r="AO14" s="36"/>
+      <c r="AP14" s="36"/>
+      <c r="AQ14" s="36"/>
+      <c r="AR14" s="36"/>
     </row>
     <row r="15" spans="2:44" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="37"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="7"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1775,17 +1775,17 @@
       <c r="AJ15" s="24"/>
       <c r="AK15" s="24"/>
       <c r="AL15" s="27"/>
-      <c r="AM15" s="50" t="s">
+      <c r="AM15" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="AN15" s="50"/>
-      <c r="AO15" s="50"/>
-      <c r="AP15" s="50"/>
-      <c r="AQ15" s="50"/>
-      <c r="AR15" s="50"/>
+      <c r="AN15" s="36"/>
+      <c r="AO15" s="36"/>
+      <c r="AP15" s="36"/>
+      <c r="AQ15" s="36"/>
+      <c r="AR15" s="36"/>
     </row>
     <row r="16" spans="2:44" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="38"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="8"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1822,19 +1822,19 @@
       <c r="AJ16" s="29"/>
       <c r="AK16" s="29"/>
       <c r="AL16" s="32"/>
-      <c r="AM16" s="50" t="s">
+      <c r="AM16" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="AN16" s="50"/>
-      <c r="AO16" s="50"/>
-      <c r="AP16" s="50" t="s">
+      <c r="AN16" s="36"/>
+      <c r="AO16" s="36"/>
+      <c r="AP16" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="AQ16" s="50"/>
-      <c r="AR16" s="50"/>
+      <c r="AQ16" s="36"/>
+      <c r="AR16" s="36"/>
     </row>
     <row r="17" spans="2:44" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="36"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="9"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1871,17 +1871,17 @@
       <c r="AJ17" s="17"/>
       <c r="AK17" s="17"/>
       <c r="AL17" s="34"/>
-      <c r="AM17" s="50" t="s">
+      <c r="AM17" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="AN17" s="50"/>
-      <c r="AO17" s="50"/>
-      <c r="AP17" s="50"/>
-      <c r="AQ17" s="50"/>
-      <c r="AR17" s="50"/>
+      <c r="AN17" s="36"/>
+      <c r="AO17" s="36"/>
+      <c r="AP17" s="36"/>
+      <c r="AQ17" s="36"/>
+      <c r="AR17" s="36"/>
     </row>
     <row r="18" spans="2:44" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="37"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="7"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1918,17 +1918,17 @@
       <c r="AJ18" s="24"/>
       <c r="AK18" s="24"/>
       <c r="AL18" s="27"/>
-      <c r="AM18" s="50" t="s">
+      <c r="AM18" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AN18" s="50"/>
-      <c r="AO18" s="50"/>
-      <c r="AP18" s="50"/>
-      <c r="AQ18" s="50"/>
-      <c r="AR18" s="50"/>
+      <c r="AN18" s="36"/>
+      <c r="AO18" s="36"/>
+      <c r="AP18" s="36"/>
+      <c r="AQ18" s="36"/>
+      <c r="AR18" s="36"/>
     </row>
     <row r="19" spans="2:44" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="37"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="7"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1965,19 +1965,19 @@
       <c r="AJ19" s="24"/>
       <c r="AK19" s="24"/>
       <c r="AL19" s="27"/>
-      <c r="AM19" s="50" t="s">
+      <c r="AM19" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="AN19" s="50"/>
-      <c r="AO19" s="50"/>
-      <c r="AP19" s="50" t="s">
+      <c r="AN19" s="36"/>
+      <c r="AO19" s="36"/>
+      <c r="AP19" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="AQ19" s="50"/>
-      <c r="AR19" s="50"/>
+      <c r="AQ19" s="36"/>
+      <c r="AR19" s="36"/>
     </row>
     <row r="20" spans="2:44" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="37"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="7"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -2014,17 +2014,17 @@
       <c r="AJ20" s="24"/>
       <c r="AK20" s="24"/>
       <c r="AL20" s="27"/>
-      <c r="AM20" s="50" t="s">
+      <c r="AM20" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="AN20" s="50"/>
-      <c r="AO20" s="50"/>
-      <c r="AP20" s="50"/>
-      <c r="AQ20" s="50"/>
-      <c r="AR20" s="50"/>
+      <c r="AN20" s="36"/>
+      <c r="AO20" s="36"/>
+      <c r="AP20" s="36"/>
+      <c r="AQ20" s="36"/>
+      <c r="AR20" s="36"/>
     </row>
     <row r="21" spans="2:44" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="37"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="7"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -2061,17 +2061,17 @@
       <c r="AJ21" s="24"/>
       <c r="AK21" s="24"/>
       <c r="AL21" s="27"/>
-      <c r="AM21" s="50" t="s">
+      <c r="AM21" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="AN21" s="50"/>
-      <c r="AO21" s="50"/>
-      <c r="AP21" s="50"/>
-      <c r="AQ21" s="50"/>
-      <c r="AR21" s="50"/>
+      <c r="AN21" s="36"/>
+      <c r="AO21" s="36"/>
+      <c r="AP21" s="36"/>
+      <c r="AQ21" s="36"/>
+      <c r="AR21" s="36"/>
     </row>
     <row r="22" spans="2:44" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="37"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="7"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -2108,17 +2108,17 @@
       <c r="AJ22" s="24"/>
       <c r="AK22" s="24"/>
       <c r="AL22" s="27"/>
-      <c r="AM22" s="50" t="s">
+      <c r="AM22" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="AN22" s="50"/>
-      <c r="AO22" s="50"/>
-      <c r="AP22" s="50"/>
-      <c r="AQ22" s="50"/>
-      <c r="AR22" s="50"/>
+      <c r="AN22" s="36"/>
+      <c r="AO22" s="36"/>
+      <c r="AP22" s="36"/>
+      <c r="AQ22" s="36"/>
+      <c r="AR22" s="36"/>
     </row>
     <row r="23" spans="2:44" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="37"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="7"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -2155,17 +2155,17 @@
       <c r="AJ23" s="24"/>
       <c r="AK23" s="24"/>
       <c r="AL23" s="27"/>
-      <c r="AM23" s="50" t="s">
+      <c r="AM23" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="AN23" s="50"/>
-      <c r="AO23" s="50"/>
-      <c r="AP23" s="50"/>
-      <c r="AQ23" s="50"/>
-      <c r="AR23" s="50"/>
+      <c r="AN23" s="36"/>
+      <c r="AO23" s="36"/>
+      <c r="AP23" s="36"/>
+      <c r="AQ23" s="36"/>
+      <c r="AR23" s="36"/>
     </row>
     <row r="24" spans="2:44" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="38"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="8"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -2202,19 +2202,19 @@
       <c r="AJ24" s="29"/>
       <c r="AK24" s="29"/>
       <c r="AL24" s="32"/>
-      <c r="AM24" s="50" t="s">
+      <c r="AM24" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="AN24" s="50"/>
-      <c r="AO24" s="50"/>
-      <c r="AP24" s="50" t="s">
+      <c r="AN24" s="36"/>
+      <c r="AO24" s="36"/>
+      <c r="AP24" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="AQ24" s="50"/>
-      <c r="AR24" s="50"/>
+      <c r="AQ24" s="36"/>
+      <c r="AR24" s="36"/>
     </row>
     <row r="25" spans="2:44" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="36"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="9"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -2251,17 +2251,17 @@
       <c r="AJ25" s="17"/>
       <c r="AK25" s="17"/>
       <c r="AL25" s="34"/>
-      <c r="AM25" s="50" t="s">
+      <c r="AM25" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="AN25" s="50"/>
-      <c r="AO25" s="50"/>
-      <c r="AP25" s="50"/>
-      <c r="AQ25" s="50"/>
-      <c r="AR25" s="50"/>
+      <c r="AN25" s="36"/>
+      <c r="AO25" s="36"/>
+      <c r="AP25" s="36"/>
+      <c r="AQ25" s="36"/>
+      <c r="AR25" s="36"/>
     </row>
     <row r="26" spans="2:44" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="37"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="7"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -2298,17 +2298,17 @@
       <c r="AJ26" s="24"/>
       <c r="AK26" s="24"/>
       <c r="AL26" s="27"/>
-      <c r="AM26" s="50" t="s">
+      <c r="AM26" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AN26" s="50"/>
-      <c r="AO26" s="50"/>
-      <c r="AP26" s="50"/>
-      <c r="AQ26" s="50"/>
-      <c r="AR26" s="50"/>
+      <c r="AN26" s="36"/>
+      <c r="AO26" s="36"/>
+      <c r="AP26" s="36"/>
+      <c r="AQ26" s="36"/>
+      <c r="AR26" s="36"/>
     </row>
     <row r="27" spans="2:44" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="37"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="7"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -2345,19 +2345,19 @@
       <c r="AJ27" s="24"/>
       <c r="AK27" s="24"/>
       <c r="AL27" s="27"/>
-      <c r="AM27" s="50" t="s">
+      <c r="AM27" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="AN27" s="50"/>
-      <c r="AO27" s="50"/>
-      <c r="AP27" s="50" t="s">
+      <c r="AN27" s="36"/>
+      <c r="AO27" s="36"/>
+      <c r="AP27" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="AQ27" s="50"/>
-      <c r="AR27" s="50"/>
+      <c r="AQ27" s="36"/>
+      <c r="AR27" s="36"/>
     </row>
     <row r="28" spans="2:44" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="37"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="7"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -2394,17 +2394,17 @@
       <c r="AJ28" s="24"/>
       <c r="AK28" s="24"/>
       <c r="AL28" s="27"/>
-      <c r="AM28" s="50" t="s">
+      <c r="AM28" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="AN28" s="50"/>
-      <c r="AO28" s="50"/>
-      <c r="AP28" s="50"/>
-      <c r="AQ28" s="50"/>
-      <c r="AR28" s="50"/>
+      <c r="AN28" s="36"/>
+      <c r="AO28" s="36"/>
+      <c r="AP28" s="36"/>
+      <c r="AQ28" s="36"/>
+      <c r="AR28" s="36"/>
     </row>
     <row r="29" spans="2:44" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="37"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="7"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -2441,17 +2441,17 @@
       <c r="AJ29" s="24"/>
       <c r="AK29" s="24"/>
       <c r="AL29" s="27"/>
-      <c r="AM29" s="50" t="s">
+      <c r="AM29" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="AN29" s="50"/>
-      <c r="AO29" s="50"/>
-      <c r="AP29" s="50"/>
-      <c r="AQ29" s="50"/>
-      <c r="AR29" s="50"/>
+      <c r="AN29" s="36"/>
+      <c r="AO29" s="36"/>
+      <c r="AP29" s="36"/>
+      <c r="AQ29" s="36"/>
+      <c r="AR29" s="36"/>
     </row>
     <row r="30" spans="2:44" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="37"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="7"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -2488,17 +2488,17 @@
       <c r="AJ30" s="24"/>
       <c r="AK30" s="24"/>
       <c r="AL30" s="27"/>
-      <c r="AM30" s="50" t="s">
+      <c r="AM30" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="AN30" s="50"/>
-      <c r="AO30" s="50"/>
-      <c r="AP30" s="50"/>
-      <c r="AQ30" s="50"/>
-      <c r="AR30" s="50"/>
+      <c r="AN30" s="36"/>
+      <c r="AO30" s="36"/>
+      <c r="AP30" s="36"/>
+      <c r="AQ30" s="36"/>
+      <c r="AR30" s="36"/>
     </row>
     <row r="31" spans="2:44" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="37"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="7"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -2535,17 +2535,17 @@
       <c r="AJ31" s="24"/>
       <c r="AK31" s="24"/>
       <c r="AL31" s="27"/>
-      <c r="AM31" s="50" t="s">
+      <c r="AM31" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="AN31" s="50"/>
-      <c r="AO31" s="50"/>
-      <c r="AP31" s="50"/>
-      <c r="AQ31" s="50"/>
-      <c r="AR31" s="50"/>
+      <c r="AN31" s="36"/>
+      <c r="AO31" s="36"/>
+      <c r="AP31" s="36"/>
+      <c r="AQ31" s="36"/>
+      <c r="AR31" s="36"/>
     </row>
     <row r="32" spans="2:44" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="38"/>
+      <c r="B32" s="45"/>
       <c r="C32" s="8"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -2582,19 +2582,19 @@
       <c r="AJ32" s="29"/>
       <c r="AK32" s="29"/>
       <c r="AL32" s="32"/>
-      <c r="AM32" s="50" t="s">
+      <c r="AM32" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="AN32" s="50"/>
-      <c r="AO32" s="50"/>
-      <c r="AP32" s="50" t="s">
+      <c r="AN32" s="36"/>
+      <c r="AO32" s="36"/>
+      <c r="AP32" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="AQ32" s="50"/>
-      <c r="AR32" s="50"/>
+      <c r="AQ32" s="36"/>
+      <c r="AR32" s="36"/>
     </row>
     <row r="33" spans="2:44" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="36"/>
+      <c r="B33" s="43"/>
       <c r="C33" s="9"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -2631,17 +2631,17 @@
       <c r="AJ33" s="17"/>
       <c r="AK33" s="17"/>
       <c r="AL33" s="34"/>
-      <c r="AM33" s="50" t="s">
+      <c r="AM33" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="AN33" s="50"/>
-      <c r="AO33" s="50"/>
-      <c r="AP33" s="50"/>
-      <c r="AQ33" s="50"/>
-      <c r="AR33" s="50"/>
+      <c r="AN33" s="36"/>
+      <c r="AO33" s="36"/>
+      <c r="AP33" s="36"/>
+      <c r="AQ33" s="36"/>
+      <c r="AR33" s="36"/>
     </row>
     <row r="34" spans="2:44" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="37"/>
+      <c r="B34" s="44"/>
       <c r="C34" s="7"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2678,17 +2678,17 @@
       <c r="AJ34" s="24"/>
       <c r="AK34" s="24"/>
       <c r="AL34" s="27"/>
-      <c r="AM34" s="50" t="s">
+      <c r="AM34" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AN34" s="50"/>
-      <c r="AO34" s="50"/>
-      <c r="AP34" s="50"/>
-      <c r="AQ34" s="50"/>
-      <c r="AR34" s="50"/>
+      <c r="AN34" s="36"/>
+      <c r="AO34" s="36"/>
+      <c r="AP34" s="36"/>
+      <c r="AQ34" s="36"/>
+      <c r="AR34" s="36"/>
     </row>
     <row r="35" spans="2:44" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="37"/>
+      <c r="B35" s="44"/>
       <c r="C35" s="7"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -2725,19 +2725,19 @@
       <c r="AJ35" s="24"/>
       <c r="AK35" s="24"/>
       <c r="AL35" s="27"/>
-      <c r="AM35" s="50" t="s">
+      <c r="AM35" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="AN35" s="50"/>
-      <c r="AO35" s="50"/>
-      <c r="AP35" s="50" t="s">
+      <c r="AN35" s="36"/>
+      <c r="AO35" s="36"/>
+      <c r="AP35" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="AQ35" s="50"/>
-      <c r="AR35" s="50"/>
+      <c r="AQ35" s="36"/>
+      <c r="AR35" s="36"/>
     </row>
     <row r="36" spans="2:44" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="37"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="7"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -2774,17 +2774,17 @@
       <c r="AJ36" s="24"/>
       <c r="AK36" s="24"/>
       <c r="AL36" s="27"/>
-      <c r="AM36" s="50" t="s">
+      <c r="AM36" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="AN36" s="50"/>
-      <c r="AO36" s="50"/>
-      <c r="AP36" s="50"/>
-      <c r="AQ36" s="50"/>
-      <c r="AR36" s="50"/>
+      <c r="AN36" s="36"/>
+      <c r="AO36" s="36"/>
+      <c r="AP36" s="36"/>
+      <c r="AQ36" s="36"/>
+      <c r="AR36" s="36"/>
     </row>
     <row r="37" spans="2:44" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="37"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="7"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -2821,17 +2821,17 @@
       <c r="AJ37" s="24"/>
       <c r="AK37" s="24"/>
       <c r="AL37" s="27"/>
-      <c r="AM37" s="50" t="s">
+      <c r="AM37" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="AN37" s="50"/>
-      <c r="AO37" s="50"/>
-      <c r="AP37" s="50"/>
-      <c r="AQ37" s="50"/>
-      <c r="AR37" s="50"/>
+      <c r="AN37" s="36"/>
+      <c r="AO37" s="36"/>
+      <c r="AP37" s="36"/>
+      <c r="AQ37" s="36"/>
+      <c r="AR37" s="36"/>
     </row>
     <row r="38" spans="2:44" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="37"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="7"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -2868,17 +2868,17 @@
       <c r="AJ38" s="24"/>
       <c r="AK38" s="24"/>
       <c r="AL38" s="27"/>
-      <c r="AM38" s="50" t="s">
+      <c r="AM38" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="AN38" s="50"/>
-      <c r="AO38" s="50"/>
-      <c r="AP38" s="50"/>
-      <c r="AQ38" s="50"/>
-      <c r="AR38" s="50"/>
+      <c r="AN38" s="36"/>
+      <c r="AO38" s="36"/>
+      <c r="AP38" s="36"/>
+      <c r="AQ38" s="36"/>
+      <c r="AR38" s="36"/>
     </row>
     <row r="39" spans="2:44" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="37"/>
+      <c r="B39" s="44"/>
       <c r="C39" s="7"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -2915,17 +2915,17 @@
       <c r="AJ39" s="24"/>
       <c r="AK39" s="24"/>
       <c r="AL39" s="27"/>
-      <c r="AM39" s="50" t="s">
+      <c r="AM39" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="AN39" s="50"/>
-      <c r="AO39" s="50"/>
-      <c r="AP39" s="50"/>
-      <c r="AQ39" s="50"/>
-      <c r="AR39" s="50"/>
+      <c r="AN39" s="36"/>
+      <c r="AO39" s="36"/>
+      <c r="AP39" s="36"/>
+      <c r="AQ39" s="36"/>
+      <c r="AR39" s="36"/>
     </row>
     <row r="40" spans="2:44" ht="20.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="38"/>
+      <c r="B40" s="45"/>
       <c r="C40" s="8"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -2962,39 +2962,40 @@
       <c r="AJ40" s="29"/>
       <c r="AK40" s="29"/>
       <c r="AL40" s="32"/>
-      <c r="AM40" s="50" t="s">
+      <c r="AM40" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="AN40" s="50"/>
-      <c r="AO40" s="50"/>
-      <c r="AP40" s="50" t="s">
+      <c r="AN40" s="36"/>
+      <c r="AO40" s="36"/>
+      <c r="AP40" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="AQ40" s="50"/>
-      <c r="AR40" s="50"/>
+      <c r="AQ40" s="36"/>
+      <c r="AR40" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="AM39:AR39"/>
-    <mergeCell ref="AM40:AO40"/>
-    <mergeCell ref="AP40:AR40"/>
-    <mergeCell ref="AM35:AO35"/>
-    <mergeCell ref="AP35:AR35"/>
-    <mergeCell ref="AM36:AR36"/>
-    <mergeCell ref="AM37:AR37"/>
-    <mergeCell ref="AM25:AR25"/>
-    <mergeCell ref="AM26:AR26"/>
-    <mergeCell ref="AM27:AO27"/>
-    <mergeCell ref="AP27:AR27"/>
-    <mergeCell ref="AM38:AR38"/>
-    <mergeCell ref="AM32:AO32"/>
-    <mergeCell ref="AP32:AR32"/>
-    <mergeCell ref="AM33:AR33"/>
-    <mergeCell ref="AM34:AR34"/>
-    <mergeCell ref="AM28:AR28"/>
-    <mergeCell ref="AM29:AR29"/>
-    <mergeCell ref="AM30:AR30"/>
-    <mergeCell ref="AM31:AR31"/>
+    <mergeCell ref="B33:B40"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F7:AL7"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="Q3:W3"/>
+    <mergeCell ref="Q5:W5"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="AM15:AR15"/>
+    <mergeCell ref="AM9:AR9"/>
+    <mergeCell ref="AM10:AR10"/>
+    <mergeCell ref="AM11:AO11"/>
+    <mergeCell ref="AP11:AR11"/>
     <mergeCell ref="AM7:AR8"/>
     <mergeCell ref="AM22:AR22"/>
     <mergeCell ref="AM23:AR23"/>
@@ -3011,27 +3012,26 @@
     <mergeCell ref="AM12:AR12"/>
     <mergeCell ref="AM13:AR13"/>
     <mergeCell ref="AM14:AR14"/>
-    <mergeCell ref="AM15:AR15"/>
-    <mergeCell ref="AM9:AR9"/>
-    <mergeCell ref="AM10:AR10"/>
-    <mergeCell ref="AM11:AO11"/>
-    <mergeCell ref="AP11:AR11"/>
-    <mergeCell ref="B33:B40"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F7:AL7"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="B17:B24"/>
-    <mergeCell ref="Q3:W3"/>
-    <mergeCell ref="Q5:W5"/>
-    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="AM25:AR25"/>
+    <mergeCell ref="AM26:AR26"/>
+    <mergeCell ref="AM27:AO27"/>
+    <mergeCell ref="AP27:AR27"/>
+    <mergeCell ref="AM38:AR38"/>
+    <mergeCell ref="AM32:AO32"/>
+    <mergeCell ref="AP32:AR32"/>
+    <mergeCell ref="AM33:AR33"/>
+    <mergeCell ref="AM34:AR34"/>
+    <mergeCell ref="AM28:AR28"/>
+    <mergeCell ref="AM29:AR29"/>
+    <mergeCell ref="AM30:AR30"/>
+    <mergeCell ref="AM31:AR31"/>
+    <mergeCell ref="AM39:AR39"/>
+    <mergeCell ref="AM40:AO40"/>
+    <mergeCell ref="AP40:AR40"/>
+    <mergeCell ref="AM35:AO35"/>
+    <mergeCell ref="AP35:AR35"/>
+    <mergeCell ref="AM36:AR36"/>
+    <mergeCell ref="AM37:AR37"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
